--- a/data/grephongrowth_BW.xlsx
+++ b/data/grephongrowth_BW.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/TemporalEcologyLab/grephongrowthmeta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AC39D-B101-0542-AEF2-B8FF769BD3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382B2B1-2C00-894B-98FE-AD31FDBA29F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="2" r:id="rId1"/>
     <sheet name="source" sheetId="5" r:id="rId2"/>
     <sheet name="data" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="scratch" sheetId="3" r:id="rId5"/>
+    <sheet name="scratch" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="87">
   <si>
     <t>paperid</t>
   </si>
@@ -271,10 +270,52 @@
     <t>Figure 2</t>
   </si>
   <si>
-    <t>Figure 3</t>
+    <t>Figure</t>
   </si>
   <si>
-    <t>Figure</t>
+    <t>Figure 3a</t>
+  </si>
+  <si>
+    <t>Figure 3b</t>
+  </si>
+  <si>
+    <t>Pinus sylvestris</t>
+  </si>
+  <si>
+    <t>canon2022</t>
+  </si>
+  <si>
+    <t>Only presented correlation (no raw data)</t>
+  </si>
+  <si>
+    <t>How to scrape this?</t>
+  </si>
+  <si>
+    <t>Scraped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring satellite vegetation greenness and leaf area index </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>charpentier2020</t>
+  </si>
+  <si>
+    <t>chen1998</t>
+  </si>
+  <si>
+    <t>No treatment applied</t>
+  </si>
+  <si>
+    <t>measure CO2 fluxes</t>
+  </si>
+  <si>
+    <t>chen2000</t>
+  </si>
+  <si>
+    <t>measure NPP</t>
   </si>
 </sst>
 </file>
@@ -843,10 +884,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1147,7 +1184,7 @@
   <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1290,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01B2CF4-634A-0B41-AB47-C9DC2FC04171}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1417,6 +1454,9 @@
       <c r="H4">
         <v>2022</v>
       </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -1448,10 +1488,51 @@
       <c r="H6">
         <v>2018</v>
       </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1522,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -4066,7 +4147,7 @@
         <v>62</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4113,7 +4194,7 @@
         <v>62</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4160,7 +4241,7 @@
         <v>62</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4207,7 +4288,7 @@
         <v>62</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4254,7 +4335,7 @@
         <v>62</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4301,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4348,7 +4429,7 @@
         <v>62</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4395,7 +4476,7 @@
         <v>62</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4442,7 +4523,7 @@
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4489,7 +4570,7 @@
         <v>62</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4536,7 +4617,7 @@
         <v>62</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4583,7 +4664,7 @@
         <v>62</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4630,7 +4711,7 @@
         <v>62</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4677,7 +4758,7 @@
         <v>62</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4724,7 +4805,7 @@
         <v>62</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4771,7 +4852,7 @@
         <v>62</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4818,7 +4899,7 @@
         <v>62</v>
       </c>
       <c r="O71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4865,7 +4946,7 @@
         <v>62</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4912,7 +4993,7 @@
         <v>62</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4959,7 +5040,7 @@
         <v>62</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5006,7 +5087,7 @@
         <v>62</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -5053,7 +5134,7 @@
         <v>62</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5100,7 +5181,7 @@
         <v>62</v>
       </c>
       <c r="O77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5147,7 +5228,7 @@
         <v>62</v>
       </c>
       <c r="O78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5194,7 +5275,7 @@
         <v>62</v>
       </c>
       <c r="O79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5241,7 +5322,7 @@
         <v>62</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5288,7 +5369,7 @@
         <v>62</v>
       </c>
       <c r="O81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5335,7 +5416,7 @@
         <v>62</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5382,7 +5463,7 @@
         <v>62</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5429,7 +5510,7 @@
         <v>62</v>
       </c>
       <c r="O84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -5476,7 +5557,7 @@
         <v>62</v>
       </c>
       <c r="O85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5523,7 +5604,7 @@
         <v>62</v>
       </c>
       <c r="O86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5570,7 +5651,7 @@
         <v>62</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5617,7 +5698,7 @@
         <v>62</v>
       </c>
       <c r="O88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5664,7 +5745,7 @@
         <v>62</v>
       </c>
       <c r="O89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5711,7 +5792,7 @@
         <v>62</v>
       </c>
       <c r="O90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5758,7 +5839,7 @@
         <v>62</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5805,7 +5886,7 @@
         <v>62</v>
       </c>
       <c r="O92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5852,7 +5933,7 @@
         <v>62</v>
       </c>
       <c r="O93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5899,7 +5980,7 @@
         <v>62</v>
       </c>
       <c r="O94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5946,7 +6027,7 @@
         <v>62</v>
       </c>
       <c r="O95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5993,7 +6074,7 @@
         <v>62</v>
       </c>
       <c r="O96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -6040,7 +6121,7 @@
         <v>62</v>
       </c>
       <c r="O97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -6087,7 +6168,7 @@
         <v>62</v>
       </c>
       <c r="O98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -6134,7 +6215,7 @@
         <v>62</v>
       </c>
       <c r="O99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -6181,7 +6262,7 @@
         <v>62</v>
       </c>
       <c r="O100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -6228,7 +6309,7 @@
         <v>62</v>
       </c>
       <c r="O101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6275,7 +6356,7 @@
         <v>62</v>
       </c>
       <c r="O102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -6322,7 +6403,7 @@
         <v>62</v>
       </c>
       <c r="O103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -6369,7 +6450,7 @@
         <v>62</v>
       </c>
       <c r="O104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -6416,7 +6497,7 @@
         <v>62</v>
       </c>
       <c r="O105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -6463,7 +6544,7 @@
         <v>62</v>
       </c>
       <c r="O106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -6510,7 +6591,7 @@
         <v>62</v>
       </c>
       <c r="O107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -6557,7 +6638,7 @@
         <v>62</v>
       </c>
       <c r="O108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -6604,7 +6685,7 @@
         <v>62</v>
       </c>
       <c r="O109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6651,7 +6732,7 @@
         <v>62</v>
       </c>
       <c r="O110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6698,7 +6779,2921 @@
         <v>62</v>
       </c>
       <c r="O111" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D112">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E112">
+        <v>50</v>
+      </c>
+      <c r="F112" t="s">
+        <v>62</v>
+      </c>
+      <c r="G112" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" t="s">
+        <v>62</v>
+      </c>
+      <c r="I112" t="s">
+        <v>74</v>
+      </c>
+      <c r="J112" t="s">
+        <v>64</v>
+      </c>
+      <c r="K112">
+        <v>-1.2909999999999999</v>
+      </c>
+      <c r="L112" t="s">
+        <v>62</v>
+      </c>
+      <c r="M112" s="3">
+        <v>1950.06</v>
+      </c>
+      <c r="N112" t="s">
+        <v>62</v>
+      </c>
+      <c r="O112" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D113">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E113">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" t="s">
+        <v>74</v>
+      </c>
+      <c r="J113" t="s">
+        <v>64</v>
+      </c>
+      <c r="K113">
+        <v>-0.443</v>
+      </c>
+      <c r="L113" t="s">
+        <v>62</v>
+      </c>
+      <c r="M113" s="3">
+        <v>1951.1110000000001</v>
+      </c>
+      <c r="N113" t="s">
+        <v>62</v>
+      </c>
+      <c r="O113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D114">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E114">
+        <v>50</v>
+      </c>
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" t="s">
+        <v>62</v>
+      </c>
+      <c r="I114" t="s">
+        <v>74</v>
+      </c>
+      <c r="J114" t="s">
+        <v>64</v>
+      </c>
+      <c r="K114">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="L114" t="s">
+        <v>62</v>
+      </c>
+      <c r="M114" s="3">
+        <v>1952.0719999999999</v>
+      </c>
+      <c r="N114" t="s">
+        <v>62</v>
+      </c>
+      <c r="O114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D115">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E115">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" t="s">
+        <v>62</v>
+      </c>
+      <c r="I115" t="s">
+        <v>74</v>
+      </c>
+      <c r="J115" t="s">
+        <v>64</v>
+      </c>
+      <c r="K115">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L115" t="s">
+        <v>62</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1952.973</v>
+      </c>
+      <c r="N115" t="s">
+        <v>62</v>
+      </c>
+      <c r="O115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D116">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E116">
+        <v>50</v>
+      </c>
+      <c r="F116" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" t="s">
+        <v>62</v>
+      </c>
+      <c r="I116" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" t="s">
+        <v>64</v>
+      </c>
+      <c r="K116">
+        <v>-1.329</v>
+      </c>
+      <c r="L116" t="s">
+        <v>62</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1954.0540000000001</v>
+      </c>
+      <c r="N116" t="s">
+        <v>62</v>
+      </c>
+      <c r="O116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D117">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E117">
+        <v>50</v>
+      </c>
+      <c r="F117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" t="s">
+        <v>62</v>
+      </c>
+      <c r="I117" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" t="s">
+        <v>64</v>
+      </c>
+      <c r="K117">
+        <v>-1.85</v>
+      </c>
+      <c r="L117" t="s">
+        <v>62</v>
+      </c>
+      <c r="M117" s="3">
+        <v>1955</v>
+      </c>
+      <c r="N117" t="s">
+        <v>62</v>
+      </c>
+      <c r="O117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D118">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+      <c r="F118" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" t="s">
+        <v>62</v>
+      </c>
+      <c r="I118" t="s">
+        <v>74</v>
+      </c>
+      <c r="J118" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118">
+        <v>-2.2909999999999999</v>
+      </c>
+      <c r="L118" t="s">
+        <v>62</v>
+      </c>
+      <c r="M118" s="3">
+        <v>1955.9760000000001</v>
+      </c>
+      <c r="N118" t="s">
+        <v>62</v>
+      </c>
+      <c r="O118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D119">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E119">
+        <v>50</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G119" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" t="s">
+        <v>62</v>
+      </c>
+      <c r="I119" t="s">
+        <v>74</v>
+      </c>
+      <c r="J119" t="s">
+        <v>64</v>
+      </c>
+      <c r="K119">
+        <v>-1.81</v>
+      </c>
+      <c r="L119" t="s">
+        <v>62</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1956.9970000000001</v>
+      </c>
+      <c r="N119" t="s">
+        <v>62</v>
+      </c>
+      <c r="O119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D120">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E120">
+        <v>50</v>
+      </c>
+      <c r="F120" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" t="s">
+        <v>62</v>
+      </c>
+      <c r="I120" t="s">
+        <v>74</v>
+      </c>
+      <c r="J120" t="s">
+        <v>64</v>
+      </c>
+      <c r="K120">
+        <v>-0.873</v>
+      </c>
+      <c r="L120" t="s">
+        <v>62</v>
+      </c>
+      <c r="M120" s="3">
+        <v>1958.05</v>
+      </c>
+      <c r="N120" t="s">
+        <v>62</v>
+      </c>
+      <c r="O120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D121">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121" t="s">
+        <v>62</v>
+      </c>
+      <c r="G121" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" t="s">
+        <v>62</v>
+      </c>
+      <c r="I121" t="s">
+        <v>74</v>
+      </c>
+      <c r="J121" t="s">
+        <v>64</v>
+      </c>
+      <c r="K121">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L121" t="s">
+        <v>62</v>
+      </c>
+      <c r="M121" s="3">
+        <v>1959.009</v>
+      </c>
+      <c r="N121" t="s">
+        <v>62</v>
+      </c>
+      <c r="O121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D122">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" t="s">
+        <v>62</v>
+      </c>
+      <c r="I122" t="s">
+        <v>74</v>
+      </c>
+      <c r="J122" t="s">
+        <v>64</v>
+      </c>
+      <c r="K122">
+        <v>-0.254</v>
+      </c>
+      <c r="L122" t="s">
+        <v>62</v>
+      </c>
+      <c r="M122" s="3">
+        <v>1960.0809999999999</v>
+      </c>
+      <c r="N122" t="s">
+        <v>62</v>
+      </c>
+      <c r="O122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D123">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E123">
+        <v>50</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H123" t="s">
+        <v>62</v>
+      </c>
+      <c r="I123" t="s">
+        <v>74</v>
+      </c>
+      <c r="J123" t="s">
+        <v>64</v>
+      </c>
+      <c r="K123">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="L123" t="s">
+        <v>62</v>
+      </c>
+      <c r="M123" s="3">
+        <v>1961.0409999999999</v>
+      </c>
+      <c r="N123" t="s">
+        <v>62</v>
+      </c>
+      <c r="O123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D124">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E124">
+        <v>50</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+      <c r="G124" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" t="s">
+        <v>62</v>
+      </c>
+      <c r="I124" t="s">
+        <v>74</v>
+      </c>
+      <c r="J124" t="s">
+        <v>64</v>
+      </c>
+      <c r="K124">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L124" t="s">
+        <v>62</v>
+      </c>
+      <c r="M124" s="3">
+        <v>1962</v>
+      </c>
+      <c r="N124" t="s">
+        <v>62</v>
+      </c>
+      <c r="O124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D125">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E125">
+        <v>50</v>
+      </c>
+      <c r="F125" t="s">
+        <v>62</v>
+      </c>
+      <c r="G125" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" t="s">
+        <v>62</v>
+      </c>
+      <c r="I125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J125" t="s">
+        <v>64</v>
+      </c>
+      <c r="K125">
+        <v>1.696</v>
+      </c>
+      <c r="L125" t="s">
+        <v>62</v>
+      </c>
+      <c r="M125" s="3">
+        <v>1963.0160000000001</v>
+      </c>
+      <c r="N125" t="s">
+        <v>62</v>
+      </c>
+      <c r="O125" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D126">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126" t="s">
+        <v>62</v>
+      </c>
+      <c r="H126" t="s">
+        <v>62</v>
+      </c>
+      <c r="I126" t="s">
+        <v>74</v>
+      </c>
+      <c r="J126" t="s">
+        <v>64</v>
+      </c>
+      <c r="K126">
+        <v>1.792</v>
+      </c>
+      <c r="L126" t="s">
+        <v>62</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1963.9760000000001</v>
+      </c>
+      <c r="N126" t="s">
+        <v>62</v>
+      </c>
+      <c r="O126" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D127">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E127">
+        <v>50</v>
+      </c>
+      <c r="F127" t="s">
+        <v>62</v>
+      </c>
+      <c r="G127" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" t="s">
+        <v>62</v>
+      </c>
+      <c r="I127" t="s">
+        <v>74</v>
+      </c>
+      <c r="J127" t="s">
+        <v>64</v>
+      </c>
+      <c r="K127">
+        <v>1.744</v>
+      </c>
+      <c r="L127" t="s">
+        <v>62</v>
+      </c>
+      <c r="M127" s="3">
+        <v>1965.048</v>
+      </c>
+      <c r="N127" t="s">
+        <v>62</v>
+      </c>
+      <c r="O127" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D128">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E128">
+        <v>50</v>
+      </c>
+      <c r="F128" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" t="s">
+        <v>62</v>
+      </c>
+      <c r="I128" t="s">
+        <v>74</v>
+      </c>
+      <c r="J128" t="s">
+        <v>64</v>
+      </c>
+      <c r="K128">
+        <v>1.125</v>
+      </c>
+      <c r="L128" t="s">
+        <v>62</v>
+      </c>
+      <c r="M128" s="3">
+        <v>1966.0640000000001</v>
+      </c>
+      <c r="N128" t="s">
+        <v>62</v>
+      </c>
+      <c r="O128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D129">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E129">
+        <v>50</v>
+      </c>
+      <c r="F129" t="s">
+        <v>62</v>
+      </c>
+      <c r="G129" t="s">
+        <v>62</v>
+      </c>
+      <c r="H129" t="s">
+        <v>62</v>
+      </c>
+      <c r="I129" t="s">
+        <v>74</v>
+      </c>
+      <c r="J129" t="s">
+        <v>64</v>
+      </c>
+      <c r="K129">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L129" t="s">
+        <v>62</v>
+      </c>
+      <c r="M129" s="3">
+        <v>1967.0229999999999</v>
+      </c>
+      <c r="N129" t="s">
+        <v>62</v>
+      </c>
+      <c r="O129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D130">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E130">
+        <v>50</v>
+      </c>
+      <c r="F130" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" t="s">
+        <v>62</v>
+      </c>
+      <c r="I130" t="s">
+        <v>74</v>
+      </c>
+      <c r="J130" t="s">
+        <v>64</v>
+      </c>
+      <c r="K130">
+        <v>2.077</v>
+      </c>
+      <c r="L130" t="s">
+        <v>62</v>
+      </c>
+      <c r="M130" s="3">
+        <v>1968.039</v>
+      </c>
+      <c r="N130" t="s">
+        <v>62</v>
+      </c>
+      <c r="O130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D131">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E131">
+        <v>50</v>
+      </c>
+      <c r="F131" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" t="s">
+        <v>62</v>
+      </c>
+      <c r="I131" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" t="s">
+        <v>64</v>
+      </c>
+      <c r="K131">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="L131" t="s">
+        <v>62</v>
+      </c>
+      <c r="M131" s="3">
+        <v>1969.0550000000001</v>
+      </c>
+      <c r="N131" t="s">
+        <v>62</v>
+      </c>
+      <c r="O131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D132">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E132">
+        <v>50</v>
+      </c>
+      <c r="F132" t="s">
+        <v>62</v>
+      </c>
+      <c r="G132" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" t="s">
+        <v>62</v>
+      </c>
+      <c r="I132" t="s">
+        <v>74</v>
+      </c>
+      <c r="J132" t="s">
+        <v>64</v>
+      </c>
+      <c r="K132">
+        <v>-1.111</v>
+      </c>
+      <c r="L132" t="s">
+        <v>62</v>
+      </c>
+      <c r="M132" s="3">
+        <v>1970.0150000000001</v>
+      </c>
+      <c r="N132" t="s">
+        <v>62</v>
+      </c>
+      <c r="O132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D133">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E133">
+        <v>50</v>
+      </c>
+      <c r="F133" t="s">
+        <v>62</v>
+      </c>
+      <c r="G133" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" t="s">
+        <v>62</v>
+      </c>
+      <c r="I133" t="s">
+        <v>74</v>
+      </c>
+      <c r="J133" t="s">
+        <v>64</v>
+      </c>
+      <c r="K133">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="L133" t="s">
+        <v>62</v>
+      </c>
+      <c r="M133" s="3">
+        <v>1971.03</v>
+      </c>
+      <c r="N133" t="s">
+        <v>62</v>
+      </c>
+      <c r="O133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D134">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E134">
+        <v>50</v>
+      </c>
+      <c r="F134" t="s">
+        <v>62</v>
+      </c>
+      <c r="G134" t="s">
+        <v>62</v>
+      </c>
+      <c r="H134" t="s">
+        <v>62</v>
+      </c>
+      <c r="I134" t="s">
+        <v>74</v>
+      </c>
+      <c r="J134" t="s">
+        <v>64</v>
+      </c>
+      <c r="K134">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L134" t="s">
+        <v>62</v>
+      </c>
+      <c r="M134" s="3">
+        <v>1972.046</v>
+      </c>
+      <c r="N134" t="s">
+        <v>62</v>
+      </c>
+      <c r="O134" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D135">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E135">
+        <v>50</v>
+      </c>
+      <c r="F135" t="s">
+        <v>62</v>
+      </c>
+      <c r="G135" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" t="s">
+        <v>62</v>
+      </c>
+      <c r="I135" t="s">
+        <v>74</v>
+      </c>
+      <c r="J135" t="s">
+        <v>64</v>
+      </c>
+      <c r="K135">
+        <v>-0.373</v>
+      </c>
+      <c r="L135" t="s">
+        <v>62</v>
+      </c>
+      <c r="M135" s="3">
+        <v>1973.0060000000001</v>
+      </c>
+      <c r="N135" t="s">
+        <v>62</v>
+      </c>
+      <c r="O135" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D136">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+      <c r="F136" t="s">
+        <v>62</v>
+      </c>
+      <c r="G136" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" t="s">
+        <v>62</v>
+      </c>
+      <c r="I136" t="s">
+        <v>74</v>
+      </c>
+      <c r="J136" t="s">
+        <v>64</v>
+      </c>
+      <c r="K136">
+        <v>-1.6339999999999999</v>
+      </c>
+      <c r="L136" t="s">
+        <v>62</v>
+      </c>
+      <c r="M136" s="3">
+        <v>1974.0219999999999</v>
+      </c>
+      <c r="N136" t="s">
+        <v>62</v>
+      </c>
+      <c r="O136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D137">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E137">
+        <v>50</v>
+      </c>
+      <c r="F137" t="s">
+        <v>62</v>
+      </c>
+      <c r="G137" t="s">
+        <v>62</v>
+      </c>
+      <c r="H137" t="s">
+        <v>62</v>
+      </c>
+      <c r="I137" t="s">
+        <v>74</v>
+      </c>
+      <c r="J137" t="s">
+        <v>64</v>
+      </c>
+      <c r="K137">
+        <v>-0.94399999999999995</v>
+      </c>
+      <c r="L137" t="s">
+        <v>62</v>
+      </c>
+      <c r="M137" s="3">
+        <v>1974.981</v>
+      </c>
+      <c r="N137" t="s">
+        <v>62</v>
+      </c>
+      <c r="O137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D138">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E138">
+        <v>50</v>
+      </c>
+      <c r="F138" t="s">
+        <v>62</v>
+      </c>
+      <c r="G138" t="s">
+        <v>62</v>
+      </c>
+      <c r="H138" t="s">
+        <v>62</v>
+      </c>
+      <c r="I138" t="s">
+        <v>74</v>
+      </c>
+      <c r="J138" t="s">
+        <v>64</v>
+      </c>
+      <c r="K138">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="L138" t="s">
+        <v>62</v>
+      </c>
+      <c r="M138" s="3">
+        <v>1975.9970000000001</v>
+      </c>
+      <c r="N138" t="s">
+        <v>62</v>
+      </c>
+      <c r="O138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D139">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E139">
+        <v>50</v>
+      </c>
+      <c r="F139" t="s">
+        <v>62</v>
+      </c>
+      <c r="G139" t="s">
+        <v>62</v>
+      </c>
+      <c r="H139" t="s">
+        <v>62</v>
+      </c>
+      <c r="I139" t="s">
+        <v>74</v>
+      </c>
+      <c r="J139" t="s">
+        <v>64</v>
+      </c>
+      <c r="K139">
+        <v>-0.99199999999999999</v>
+      </c>
+      <c r="L139" t="s">
+        <v>62</v>
+      </c>
+      <c r="M139" s="3">
+        <v>1977.0129999999999</v>
+      </c>
+      <c r="N139" t="s">
+        <v>62</v>
+      </c>
+      <c r="O139" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D140">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E140">
+        <v>50</v>
+      </c>
+      <c r="F140" t="s">
+        <v>62</v>
+      </c>
+      <c r="G140" t="s">
+        <v>62</v>
+      </c>
+      <c r="H140" t="s">
+        <v>62</v>
+      </c>
+      <c r="I140" t="s">
+        <v>74</v>
+      </c>
+      <c r="J140" t="s">
+        <v>64</v>
+      </c>
+      <c r="K140">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="L140" t="s">
+        <v>62</v>
+      </c>
+      <c r="M140" s="3">
+        <v>1977.972</v>
+      </c>
+      <c r="N140" t="s">
+        <v>62</v>
+      </c>
+      <c r="O140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D141">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E141">
+        <v>50</v>
+      </c>
+      <c r="F141" t="s">
+        <v>62</v>
+      </c>
+      <c r="G141" t="s">
+        <v>62</v>
+      </c>
+      <c r="H141" t="s">
+        <v>62</v>
+      </c>
+      <c r="I141" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" t="s">
+        <v>64</v>
+      </c>
+      <c r="K141">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="L141" t="s">
+        <v>62</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1979.0450000000001</v>
+      </c>
+      <c r="N141" t="s">
+        <v>62</v>
+      </c>
+      <c r="O141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D142">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E142">
+        <v>50</v>
+      </c>
+      <c r="F142" t="s">
+        <v>62</v>
+      </c>
+      <c r="G142" t="s">
+        <v>62</v>
+      </c>
+      <c r="H142" t="s">
+        <v>62</v>
+      </c>
+      <c r="I142" t="s">
+        <v>74</v>
+      </c>
+      <c r="J142" t="s">
+        <v>64</v>
+      </c>
+      <c r="K142">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="L142" t="s">
+        <v>62</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1980.0039999999999</v>
+      </c>
+      <c r="N142" t="s">
+        <v>62</v>
+      </c>
+      <c r="O142" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D143">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E143">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>62</v>
+      </c>
+      <c r="G143" t="s">
+        <v>62</v>
+      </c>
+      <c r="H143" t="s">
+        <v>62</v>
+      </c>
+      <c r="I143" t="s">
+        <v>74</v>
+      </c>
+      <c r="J143" t="s">
+        <v>64</v>
+      </c>
+      <c r="K143">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="L143" t="s">
+        <v>62</v>
+      </c>
+      <c r="M143" s="3">
+        <v>1981.02</v>
+      </c>
+      <c r="N143" t="s">
+        <v>62</v>
+      </c>
+      <c r="O143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D144">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E144">
+        <v>50</v>
+      </c>
+      <c r="F144" t="s">
+        <v>62</v>
+      </c>
+      <c r="G144" t="s">
+        <v>62</v>
+      </c>
+      <c r="H144" t="s">
+        <v>62</v>
+      </c>
+      <c r="I144" t="s">
+        <v>74</v>
+      </c>
+      <c r="J144" t="s">
+        <v>64</v>
+      </c>
+      <c r="K144">
+        <v>0.626</v>
+      </c>
+      <c r="L144" t="s">
+        <v>62</v>
+      </c>
+      <c r="M144" s="3">
+        <v>1982.0360000000001</v>
+      </c>
+      <c r="N144" t="s">
+        <v>62</v>
+      </c>
+      <c r="O144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D145">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E145">
+        <v>50</v>
+      </c>
+      <c r="F145" t="s">
+        <v>62</v>
+      </c>
+      <c r="G145" t="s">
+        <v>62</v>
+      </c>
+      <c r="H145" t="s">
+        <v>62</v>
+      </c>
+      <c r="I145" t="s">
+        <v>74</v>
+      </c>
+      <c r="J145" t="s">
+        <v>64</v>
+      </c>
+      <c r="K145">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="L145" t="s">
+        <v>62</v>
+      </c>
+      <c r="M145" s="3">
+        <v>1983.0519999999999</v>
+      </c>
+      <c r="N145" t="s">
+        <v>62</v>
+      </c>
+      <c r="O145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D146">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" t="s">
+        <v>62</v>
+      </c>
+      <c r="H146" t="s">
+        <v>62</v>
+      </c>
+      <c r="I146" t="s">
+        <v>74</v>
+      </c>
+      <c r="J146" t="s">
+        <v>64</v>
+      </c>
+      <c r="K146">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="L146" t="s">
+        <v>62</v>
+      </c>
+      <c r="M146" s="3">
+        <v>1984.011</v>
+      </c>
+      <c r="N146" t="s">
+        <v>62</v>
+      </c>
+      <c r="O146" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D147">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E147">
+        <v>50</v>
+      </c>
+      <c r="F147" t="s">
+        <v>62</v>
+      </c>
+      <c r="G147" t="s">
+        <v>62</v>
+      </c>
+      <c r="H147" t="s">
+        <v>62</v>
+      </c>
+      <c r="I147" t="s">
+        <v>74</v>
+      </c>
+      <c r="J147" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L147" t="s">
+        <v>62</v>
+      </c>
+      <c r="M147" s="3">
+        <v>1985.027</v>
+      </c>
+      <c r="N147" t="s">
+        <v>62</v>
+      </c>
+      <c r="O147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D148">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E148">
+        <v>50</v>
+      </c>
+      <c r="F148" t="s">
+        <v>62</v>
+      </c>
+      <c r="G148" t="s">
+        <v>62</v>
+      </c>
+      <c r="H148" t="s">
+        <v>62</v>
+      </c>
+      <c r="I148" t="s">
+        <v>74</v>
+      </c>
+      <c r="J148" t="s">
+        <v>64</v>
+      </c>
+      <c r="K148">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="L148" t="s">
+        <v>62</v>
+      </c>
+      <c r="M148" s="3">
+        <v>1986.0429999999999</v>
+      </c>
+      <c r="N148" t="s">
+        <v>62</v>
+      </c>
+      <c r="O148" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D149">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E149">
+        <v>50</v>
+      </c>
+      <c r="F149" t="s">
+        <v>62</v>
+      </c>
+      <c r="G149" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" t="s">
+        <v>74</v>
+      </c>
+      <c r="J149" t="s">
+        <v>64</v>
+      </c>
+      <c r="K149">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="L149" t="s">
+        <v>62</v>
+      </c>
+      <c r="M149" s="3">
+        <v>1987.059</v>
+      </c>
+      <c r="N149" t="s">
+        <v>62</v>
+      </c>
+      <c r="O149" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D150">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E150">
+        <v>50</v>
+      </c>
+      <c r="F150" t="s">
+        <v>62</v>
+      </c>
+      <c r="G150" t="s">
+        <v>62</v>
+      </c>
+      <c r="H150" t="s">
+        <v>62</v>
+      </c>
+      <c r="I150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J150" t="s">
+        <v>64</v>
+      </c>
+      <c r="K150">
+        <v>-0.65900000000000003</v>
+      </c>
+      <c r="L150" t="s">
+        <v>62</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1988.019</v>
+      </c>
+      <c r="N150" t="s">
+        <v>62</v>
+      </c>
+      <c r="O150" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D151">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
+      </c>
+      <c r="F151" t="s">
+        <v>62</v>
+      </c>
+      <c r="G151" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" t="s">
+        <v>62</v>
+      </c>
+      <c r="I151" t="s">
+        <v>74</v>
+      </c>
+      <c r="J151" t="s">
+        <v>64</v>
+      </c>
+      <c r="K151">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="L151" t="s">
+        <v>62</v>
+      </c>
+      <c r="M151" s="3">
+        <v>1989.0340000000001</v>
+      </c>
+      <c r="N151" t="s">
+        <v>62</v>
+      </c>
+      <c r="O151" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D152">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E152">
+        <v>50</v>
+      </c>
+      <c r="F152" t="s">
+        <v>62</v>
+      </c>
+      <c r="G152" t="s">
+        <v>62</v>
+      </c>
+      <c r="H152" t="s">
+        <v>62</v>
+      </c>
+      <c r="I152" t="s">
+        <v>74</v>
+      </c>
+      <c r="J152" t="s">
+        <v>64</v>
+      </c>
+      <c r="K152">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="L152" t="s">
+        <v>62</v>
+      </c>
+      <c r="M152" s="3">
+        <v>1989.9939999999999</v>
+      </c>
+      <c r="N152" t="s">
+        <v>62</v>
+      </c>
+      <c r="O152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D153">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E153">
+        <v>50</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+      <c r="G153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" t="s">
+        <v>62</v>
+      </c>
+      <c r="I153" t="s">
+        <v>74</v>
+      </c>
+      <c r="J153" t="s">
+        <v>64</v>
+      </c>
+      <c r="K153">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="L153" t="s">
+        <v>62</v>
+      </c>
+      <c r="M153" s="3">
+        <v>1991.01</v>
+      </c>
+      <c r="N153" t="s">
+        <v>62</v>
+      </c>
+      <c r="O153" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D154">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E154">
+        <v>50</v>
+      </c>
+      <c r="F154" t="s">
+        <v>62</v>
+      </c>
+      <c r="G154" t="s">
+        <v>62</v>
+      </c>
+      <c r="H154" t="s">
+        <v>62</v>
+      </c>
+      <c r="I154" t="s">
+        <v>74</v>
+      </c>
+      <c r="J154" t="s">
+        <v>64</v>
+      </c>
+      <c r="K154">
+        <v>0.245</v>
+      </c>
+      <c r="L154" t="s">
+        <v>62</v>
+      </c>
+      <c r="M154" s="3">
+        <v>1992.0260000000001</v>
+      </c>
+      <c r="N154" t="s">
+        <v>62</v>
+      </c>
+      <c r="O154" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D155">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E155">
+        <v>50</v>
+      </c>
+      <c r="F155" t="s">
+        <v>62</v>
+      </c>
+      <c r="G155" t="s">
+        <v>62</v>
+      </c>
+      <c r="H155" t="s">
+        <v>62</v>
+      </c>
+      <c r="I155" t="s">
+        <v>74</v>
+      </c>
+      <c r="J155" t="s">
+        <v>64</v>
+      </c>
+      <c r="K155">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="L155" t="s">
+        <v>62</v>
+      </c>
+      <c r="M155" s="3">
+        <v>1992.9849999999999</v>
+      </c>
+      <c r="N155" t="s">
+        <v>62</v>
+      </c>
+      <c r="O155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D156">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E156">
+        <v>50</v>
+      </c>
+      <c r="F156" t="s">
+        <v>62</v>
+      </c>
+      <c r="G156" t="s">
+        <v>62</v>
+      </c>
+      <c r="H156" t="s">
+        <v>62</v>
+      </c>
+      <c r="I156" t="s">
+        <v>74</v>
+      </c>
+      <c r="J156" t="s">
+        <v>64</v>
+      </c>
+      <c r="K156">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="L156" t="s">
+        <v>62</v>
+      </c>
+      <c r="M156" s="3">
+        <v>1994.001</v>
+      </c>
+      <c r="N156" t="s">
+        <v>62</v>
+      </c>
+      <c r="O156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>56</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D157">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E157">
+        <v>50</v>
+      </c>
+      <c r="F157" t="s">
+        <v>62</v>
+      </c>
+      <c r="G157" t="s">
+        <v>62</v>
+      </c>
+      <c r="H157" t="s">
+        <v>62</v>
+      </c>
+      <c r="I157" t="s">
+        <v>74</v>
+      </c>
+      <c r="J157" t="s">
+        <v>64</v>
+      </c>
+      <c r="K157">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L157" t="s">
+        <v>62</v>
+      </c>
+      <c r="M157" s="3">
+        <v>1994.961</v>
+      </c>
+      <c r="N157" t="s">
+        <v>62</v>
+      </c>
+      <c r="O157" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D158">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E158">
+        <v>50</v>
+      </c>
+      <c r="F158" t="s">
+        <v>62</v>
+      </c>
+      <c r="G158" t="s">
+        <v>62</v>
+      </c>
+      <c r="H158" t="s">
+        <v>62</v>
+      </c>
+      <c r="I158" t="s">
+        <v>74</v>
+      </c>
+      <c r="J158" t="s">
+        <v>64</v>
+      </c>
+      <c r="K158">
+        <v>0.34</v>
+      </c>
+      <c r="L158" t="s">
+        <v>62</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1996.0329999999999</v>
+      </c>
+      <c r="N158" t="s">
+        <v>62</v>
+      </c>
+      <c r="O158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D159">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E159">
+        <v>50</v>
+      </c>
+      <c r="F159" t="s">
+        <v>62</v>
+      </c>
+      <c r="G159" t="s">
+        <v>62</v>
+      </c>
+      <c r="H159" t="s">
+        <v>62</v>
+      </c>
+      <c r="I159" t="s">
+        <v>74</v>
+      </c>
+      <c r="J159" t="s">
+        <v>64</v>
+      </c>
+      <c r="K159">
+        <v>-0.70599999999999996</v>
+      </c>
+      <c r="L159" t="s">
+        <v>62</v>
+      </c>
+      <c r="M159" s="3">
+        <v>1997.049</v>
+      </c>
+      <c r="N159" t="s">
+        <v>62</v>
+      </c>
+      <c r="O159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D160">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E160">
+        <v>50</v>
+      </c>
+      <c r="F160" t="s">
+        <v>62</v>
+      </c>
+      <c r="G160" t="s">
+        <v>62</v>
+      </c>
+      <c r="H160" t="s">
+        <v>62</v>
+      </c>
+      <c r="I160" t="s">
+        <v>74</v>
+      </c>
+      <c r="J160" t="s">
+        <v>64</v>
+      </c>
+      <c r="K160">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="L160" t="s">
+        <v>62</v>
+      </c>
+      <c r="M160" s="3">
+        <v>1998.0650000000001</v>
+      </c>
+      <c r="N160" t="s">
+        <v>62</v>
+      </c>
+      <c r="O160" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D161">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E161">
+        <v>50</v>
+      </c>
+      <c r="F161" t="s">
+        <v>62</v>
+      </c>
+      <c r="G161" t="s">
+        <v>62</v>
+      </c>
+      <c r="H161" t="s">
+        <v>62</v>
+      </c>
+      <c r="I161" t="s">
+        <v>74</v>
+      </c>
+      <c r="J161" t="s">
+        <v>64</v>
+      </c>
+      <c r="K161">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L161" t="s">
+        <v>62</v>
+      </c>
+      <c r="M161" s="3">
+        <v>1999.0239999999999</v>
+      </c>
+      <c r="N161" t="s">
+        <v>62</v>
+      </c>
+      <c r="O161" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D162">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E162">
+        <v>50</v>
+      </c>
+      <c r="F162" t="s">
+        <v>62</v>
+      </c>
+      <c r="G162" t="s">
+        <v>62</v>
+      </c>
+      <c r="H162" t="s">
+        <v>62</v>
+      </c>
+      <c r="I162" t="s">
+        <v>74</v>
+      </c>
+      <c r="J162" t="s">
+        <v>64</v>
+      </c>
+      <c r="K162">
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="L162" t="s">
+        <v>62</v>
+      </c>
+      <c r="M162" s="3">
+        <v>2000.04</v>
+      </c>
+      <c r="N162" t="s">
+        <v>62</v>
+      </c>
+      <c r="O162" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D163">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E163">
+        <v>50</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+      <c r="G163" t="s">
+        <v>62</v>
+      </c>
+      <c r="H163" t="s">
+        <v>62</v>
+      </c>
+      <c r="I163" t="s">
+        <v>74</v>
+      </c>
+      <c r="J163" t="s">
+        <v>64</v>
+      </c>
+      <c r="K163">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="L163" t="s">
+        <v>62</v>
+      </c>
+      <c r="M163" s="3">
+        <v>2001.056</v>
+      </c>
+      <c r="N163" t="s">
+        <v>62</v>
+      </c>
+      <c r="O163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D164">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E164">
+        <v>50</v>
+      </c>
+      <c r="F164" t="s">
+        <v>62</v>
+      </c>
+      <c r="G164" t="s">
+        <v>62</v>
+      </c>
+      <c r="H164" t="s">
+        <v>62</v>
+      </c>
+      <c r="I164" t="s">
+        <v>74</v>
+      </c>
+      <c r="J164" t="s">
+        <v>64</v>
+      </c>
+      <c r="K164">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="L164" t="s">
+        <v>62</v>
+      </c>
+      <c r="M164" s="3">
+        <v>2002.0150000000001</v>
+      </c>
+      <c r="N164" t="s">
+        <v>62</v>
+      </c>
+      <c r="O164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D165">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E165">
+        <v>50</v>
+      </c>
+      <c r="F165" t="s">
+        <v>62</v>
+      </c>
+      <c r="G165" t="s">
+        <v>62</v>
+      </c>
+      <c r="H165" t="s">
+        <v>62</v>
+      </c>
+      <c r="I165" t="s">
+        <v>74</v>
+      </c>
+      <c r="J165" t="s">
+        <v>64</v>
+      </c>
+      <c r="K165">
+        <v>1.744</v>
+      </c>
+      <c r="L165" t="s">
+        <v>62</v>
+      </c>
+      <c r="M165" s="3">
+        <v>2003.0309999999999</v>
+      </c>
+      <c r="N165" t="s">
+        <v>62</v>
+      </c>
+      <c r="O165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D166">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E166">
+        <v>50</v>
+      </c>
+      <c r="F166" t="s">
+        <v>62</v>
+      </c>
+      <c r="G166" t="s">
+        <v>62</v>
+      </c>
+      <c r="H166" t="s">
+        <v>62</v>
+      </c>
+      <c r="I166" t="s">
+        <v>74</v>
+      </c>
+      <c r="J166" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="L166" t="s">
+        <v>62</v>
+      </c>
+      <c r="M166" s="3">
+        <v>2003.991</v>
+      </c>
+      <c r="N166" t="s">
+        <v>62</v>
+      </c>
+      <c r="O166" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D167">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E167">
+        <v>50</v>
+      </c>
+      <c r="F167" t="s">
+        <v>62</v>
+      </c>
+      <c r="G167" t="s">
+        <v>62</v>
+      </c>
+      <c r="H167" t="s">
+        <v>62</v>
+      </c>
+      <c r="I167" t="s">
+        <v>74</v>
+      </c>
+      <c r="J167" t="s">
+        <v>64</v>
+      </c>
+      <c r="K167">
+        <v>0.435</v>
+      </c>
+      <c r="L167" t="s">
+        <v>62</v>
+      </c>
+      <c r="M167" s="3">
+        <v>2005.0070000000001</v>
+      </c>
+      <c r="N167" t="s">
+        <v>62</v>
+      </c>
+      <c r="O167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D168">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E168">
+        <v>50</v>
+      </c>
+      <c r="F168" t="s">
+        <v>62</v>
+      </c>
+      <c r="G168" t="s">
+        <v>62</v>
+      </c>
+      <c r="H168" t="s">
+        <v>62</v>
+      </c>
+      <c r="I168" t="s">
+        <v>74</v>
+      </c>
+      <c r="J168" t="s">
+        <v>64</v>
+      </c>
+      <c r="K168">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="L168" t="s">
+        <v>62</v>
+      </c>
+      <c r="M168" s="3">
+        <v>2006.0229999999999</v>
+      </c>
+      <c r="N168" t="s">
+        <v>62</v>
+      </c>
+      <c r="O168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D169">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E169">
+        <v>50</v>
+      </c>
+      <c r="F169" t="s">
+        <v>62</v>
+      </c>
+      <c r="G169" t="s">
+        <v>62</v>
+      </c>
+      <c r="H169" t="s">
+        <v>62</v>
+      </c>
+      <c r="I169" t="s">
+        <v>74</v>
+      </c>
+      <c r="J169" t="s">
+        <v>64</v>
+      </c>
+      <c r="K169">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="L169" t="s">
+        <v>62</v>
+      </c>
+      <c r="M169" s="3">
+        <v>2007.038</v>
+      </c>
+      <c r="N169" t="s">
+        <v>62</v>
+      </c>
+      <c r="O169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D170">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E170">
+        <v>50</v>
+      </c>
+      <c r="F170" t="s">
+        <v>62</v>
+      </c>
+      <c r="G170" t="s">
+        <v>62</v>
+      </c>
+      <c r="H170" t="s">
+        <v>62</v>
+      </c>
+      <c r="I170" t="s">
+        <v>74</v>
+      </c>
+      <c r="J170" t="s">
+        <v>64</v>
+      </c>
+      <c r="K170">
+        <v>0.65</v>
+      </c>
+      <c r="L170" t="s">
+        <v>62</v>
+      </c>
+      <c r="M170" s="3">
+        <v>2008.1110000000001</v>
+      </c>
+      <c r="N170" t="s">
+        <v>62</v>
+      </c>
+      <c r="O170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" t="s">
+        <v>56</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D171">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E171">
+        <v>50</v>
+      </c>
+      <c r="F171" t="s">
+        <v>62</v>
+      </c>
+      <c r="G171" t="s">
+        <v>62</v>
+      </c>
+      <c r="H171" t="s">
+        <v>62</v>
+      </c>
+      <c r="I171" t="s">
+        <v>74</v>
+      </c>
+      <c r="J171" t="s">
+        <v>64</v>
+      </c>
+      <c r="K171">
+        <v>1.363</v>
+      </c>
+      <c r="L171" t="s">
+        <v>62</v>
+      </c>
+      <c r="M171" s="3">
+        <v>2009.0139999999999</v>
+      </c>
+      <c r="N171" t="s">
+        <v>62</v>
+      </c>
+      <c r="O171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D172">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E172">
+        <v>50</v>
+      </c>
+      <c r="F172" t="s">
+        <v>62</v>
+      </c>
+      <c r="G172" t="s">
+        <v>62</v>
+      </c>
+      <c r="H172" t="s">
+        <v>62</v>
+      </c>
+      <c r="I172" t="s">
+        <v>74</v>
+      </c>
+      <c r="J172" t="s">
+        <v>64</v>
+      </c>
+      <c r="K172">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="L172" t="s">
+        <v>62</v>
+      </c>
+      <c r="M172" s="3">
+        <v>2010.086</v>
+      </c>
+      <c r="N172" t="s">
+        <v>62</v>
+      </c>
+      <c r="O172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173">
+        <v>55.883000000000003</v>
+      </c>
+      <c r="D173">
+        <v>92.766999999999996</v>
+      </c>
+      <c r="E173">
+        <v>50</v>
+      </c>
+      <c r="F173" t="s">
+        <v>62</v>
+      </c>
+      <c r="G173" t="s">
+        <v>62</v>
+      </c>
+      <c r="H173" t="s">
+        <v>62</v>
+      </c>
+      <c r="I173" t="s">
+        <v>74</v>
+      </c>
+      <c r="J173" t="s">
+        <v>64</v>
+      </c>
+      <c r="K173">
+        <v>-0.159</v>
+      </c>
+      <c r="L173" t="s">
+        <v>62</v>
+      </c>
+      <c r="M173" s="3">
+        <v>2010.989</v>
+      </c>
+      <c r="N173" t="s">
+        <v>62</v>
+      </c>
+      <c r="O173" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6708,1342 +9703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB057A51-8F3E-DF4A-9414-9DFC6B9B00B3}">
-  <dimension ref="A2:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:X62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F58"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1950</v>
-      </c>
-      <c r="G2">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1951.056</v>
-      </c>
-      <c r="G3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1952.027</v>
-      </c>
-      <c r="G4">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1953.0540000000001</v>
-      </c>
-      <c r="G5">
-        <v>-0.998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1954.0820000000001</v>
-      </c>
-      <c r="G6">
-        <v>1.0389999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1955.0519999999999</v>
-      </c>
-      <c r="G7">
-        <v>-0.25600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1956.0229999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1958.021</v>
-      </c>
-      <c r="G9">
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1959.049</v>
-      </c>
-      <c r="G10">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1960.076</v>
-      </c>
-      <c r="G11">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1961.047</v>
-      </c>
-      <c r="G12">
-        <v>-0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1962.0170000000001</v>
-      </c>
-      <c r="G13">
-        <v>-0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1962.9880000000001</v>
-      </c>
-      <c r="G14">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1964.0719999999999</v>
-      </c>
-      <c r="G15">
-        <v>-0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1965.0429999999999</v>
-      </c>
-      <c r="G16">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1966.0129999999999</v>
-      </c>
-      <c r="G17">
-        <v>-0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1967.0409999999999</v>
-      </c>
-      <c r="G18">
-        <v>-0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1968.011</v>
-      </c>
-      <c r="G19">
-        <v>-0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1969.039</v>
-      </c>
-      <c r="G20">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1970.01</v>
-      </c>
-      <c r="G21">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1971.037</v>
-      </c>
-      <c r="G22">
-        <v>-0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1972.008</v>
-      </c>
-      <c r="G23">
-        <v>1.524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1973.0350000000001</v>
-      </c>
-      <c r="G24">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1974.0630000000001</v>
-      </c>
-      <c r="G25">
-        <v>-0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1975.1469999999999</v>
-      </c>
-      <c r="G26">
-        <v>-0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>86</v>
-      </c>
-      <c r="D27">
-        <v>86</v>
-      </c>
-      <c r="E27">
-        <v>86</v>
-      </c>
-      <c r="F27">
-        <v>1976.0039999999999</v>
-      </c>
-      <c r="G27">
-        <v>-0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1977.0309999999999</v>
-      </c>
-      <c r="G28">
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>84</v>
-      </c>
-      <c r="D29">
-        <v>84</v>
-      </c>
-      <c r="E29">
-        <v>84</v>
-      </c>
-      <c r="F29">
-        <v>1978.059</v>
-      </c>
-      <c r="G29">
-        <v>-2.1850000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>1980.057</v>
-      </c>
-      <c r="G30">
-        <v>-0.97099999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1981.028</v>
-      </c>
-      <c r="G31">
-        <v>-0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1981.998</v>
-      </c>
-      <c r="G32">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1983.0260000000001</v>
-      </c>
-      <c r="G33">
-        <v>-0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1984.0530000000001</v>
-      </c>
-      <c r="G34">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1985.0239999999999</v>
-      </c>
-      <c r="G35">
-        <v>-1.3089999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1985.9939999999999</v>
-      </c>
-      <c r="G36">
-        <v>-0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1986.9649999999999</v>
-      </c>
-      <c r="G37">
-        <v>-0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1988.049</v>
-      </c>
-      <c r="G38">
-        <v>1.147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1989.02</v>
-      </c>
-      <c r="G39">
-        <v>-0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1990.048</v>
-      </c>
-      <c r="G40">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1991.018</v>
-      </c>
-      <c r="G41">
-        <v>-1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1992.046</v>
-      </c>
-      <c r="G42">
-        <v>-1.012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>90</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="F43">
-        <v>1993.0730000000001</v>
-      </c>
-      <c r="G43">
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>1993.93</v>
-      </c>
-      <c r="G44">
-        <v>-0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1994.9</v>
-      </c>
-      <c r="G45">
-        <v>-0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>1995.9849999999999</v>
-      </c>
-      <c r="G46">
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1997.0119999999999</v>
-      </c>
-      <c r="G47">
-        <v>1.4570000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1998.04</v>
-      </c>
-      <c r="G48">
-        <v>-0.378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1999.01</v>
-      </c>
-      <c r="G49">
-        <v>1.9830000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2000.038</v>
-      </c>
-      <c r="G50">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>2000.951</v>
-      </c>
-      <c r="G51">
-        <v>1.7130000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2002.0360000000001</v>
-      </c>
-      <c r="G52">
-        <v>2.145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>2003.9770000000001</v>
-      </c>
-      <c r="G53">
-        <v>2.766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>2003.0070000000001</v>
-      </c>
-      <c r="G54">
-        <v>2.4689999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>2005.0619999999999</v>
-      </c>
-      <c r="G55">
-        <v>-1.2010000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>2006.1469999999999</v>
-      </c>
-      <c r="G56">
-        <v>-0.121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>2007.0029999999999</v>
-      </c>
-      <c r="G57">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <v>2008.088</v>
-      </c>
-      <c r="G58">
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:P54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:24">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8086,8 +9755,29 @@
       <c r="P2">
         <v>136.40600000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1950.06</v>
+      </c>
+      <c r="X2">
+        <v>-1.2909999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
       <c r="B3">
         <v>2</v>
       </c>
@@ -8130,8 +9820,29 @@
       <c r="P3">
         <v>141.05500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1951.1110000000001</v>
+      </c>
+      <c r="X3">
+        <v>-0.443</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4">
         <v>3</v>
       </c>
@@ -8174,8 +9885,29 @@
       <c r="P4">
         <v>139.25200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1952.0719999999999</v>
+      </c>
+      <c r="X4">
+        <v>-0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5">
         <v>4</v>
       </c>
@@ -8218,8 +9950,29 @@
       <c r="P5">
         <v>122.212</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1952.973</v>
+      </c>
+      <c r="X5">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6">
         <v>5</v>
       </c>
@@ -8262,8 +10015,29 @@
       <c r="P6">
         <v>132.535</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1954.0540000000001</v>
+      </c>
+      <c r="X6">
+        <v>-1.329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7">
         <v>6</v>
       </c>
@@ -8306,8 +10080,29 @@
       <c r="P7">
         <v>138.10499999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1955.9760000000001</v>
+      </c>
+      <c r="X7">
+        <v>-2.2909999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8">
         <v>7</v>
       </c>
@@ -8350,8 +10145,29 @@
       <c r="P8">
         <v>129.58500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>98</v>
+      </c>
+      <c r="U8">
+        <v>98</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>1956.9970000000001</v>
+      </c>
+      <c r="X8">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9">
         <v>8</v>
       </c>
@@ -8394,8 +10210,29 @@
       <c r="P9">
         <v>136.303</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1958.05</v>
+      </c>
+      <c r="X9">
+        <v>-0.873</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10">
         <v>9</v>
       </c>
@@ -8438,8 +10275,29 @@
       <c r="P10">
         <v>134.501</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1959.009</v>
+      </c>
+      <c r="X10">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11">
         <v>10</v>
       </c>
@@ -8482,8 +10340,29 @@
       <c r="P11">
         <v>141.05500000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1960.0809999999999</v>
+      </c>
+      <c r="X11">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12">
         <v>11</v>
       </c>
@@ -8526,8 +10405,29 @@
       <c r="P12">
         <v>129.749</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1961.0409999999999</v>
+      </c>
+      <c r="X12">
+        <v>-0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13">
         <v>12</v>
       </c>
@@ -8565,8 +10465,29 @@
         <v>24</v>
       </c>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1962</v>
+      </c>
+      <c r="X13">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14">
         <v>13</v>
       </c>
@@ -8609,8 +10530,29 @@
       <c r="P14">
         <v>131.38800000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1963.0160000000001</v>
+      </c>
+      <c r="X14">
+        <v>1.696</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15">
         <v>14</v>
       </c>
@@ -8653,8 +10595,29 @@
       <c r="P15">
         <v>124.997</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1963.9760000000001</v>
+      </c>
+      <c r="X15">
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
       <c r="B16">
         <v>15</v>
       </c>
@@ -8697,8 +10660,29 @@
       <c r="P16">
         <v>119.099</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1965.048</v>
+      </c>
+      <c r="X16">
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17">
         <v>16</v>
       </c>
@@ -8741,8 +10725,29 @@
       <c r="P17">
         <v>132.535</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="R17">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1966.0640000000001</v>
+      </c>
+      <c r="X17">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18">
         <v>17</v>
       </c>
@@ -8785,8 +10790,29 @@
       <c r="P18">
         <v>103.041</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1967.0229999999999</v>
+      </c>
+      <c r="X18">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19">
         <v>18</v>
       </c>
@@ -8829,8 +10855,29 @@
       <c r="P19">
         <v>118.116</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="R19">
+        <v>18</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1968.039</v>
+      </c>
+      <c r="X19">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20">
         <v>19</v>
       </c>
@@ -8873,8 +10920,29 @@
       <c r="P20">
         <v>129.42099999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1969.0550000000001</v>
+      </c>
+      <c r="X20">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21">
         <v>20</v>
       </c>
@@ -8917,8 +10985,29 @@
       <c r="P21">
         <v>87.966999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1970.0150000000001</v>
+      </c>
+      <c r="X21">
+        <v>-1.111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22">
         <v>21</v>
       </c>
@@ -8961,8 +11050,29 @@
       <c r="P22">
         <v>92.555000000000007</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="R22">
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1971.03</v>
+      </c>
+      <c r="X22">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23">
         <v>22</v>
       </c>
@@ -9005,8 +11115,29 @@
       <c r="P23">
         <v>95.34</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="R23">
+        <v>22</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1972.046</v>
+      </c>
+      <c r="X23">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24">
         <v>23</v>
       </c>
@@ -9049,8 +11180,29 @@
       <c r="P24">
         <v>107.79300000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="R24">
+        <v>23</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1973.0060000000001</v>
+      </c>
+      <c r="X24">
+        <v>-0.373</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25">
         <v>24</v>
       </c>
@@ -9093,8 +11245,29 @@
       <c r="P25">
         <v>95.504000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="R25">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1974.0219999999999</v>
+      </c>
+      <c r="X25">
+        <v>-1.6339999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26">
         <v>25</v>
       </c>
@@ -9137,8 +11310,29 @@
       <c r="P26">
         <v>109.595</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="R26">
+        <v>25</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1974.981</v>
+      </c>
+      <c r="X26">
+        <v>-0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27">
         <v>26</v>
       </c>
@@ -9181,8 +11375,29 @@
       <c r="P27">
         <v>105.827</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="R27">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1975.9970000000001</v>
+      </c>
+      <c r="X27">
+        <v>-0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28">
         <v>27</v>
       </c>
@@ -9225,8 +11440,29 @@
       <c r="P28">
         <v>96.486999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1977.0129999999999</v>
+      </c>
+      <c r="X28">
+        <v>-0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29">
         <v>28</v>
       </c>
@@ -9269,8 +11505,29 @@
       <c r="P29">
         <v>109.595</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="R29">
+        <v>28</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1977.972</v>
+      </c>
+      <c r="X29">
+        <v>-0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30">
         <v>29</v>
       </c>
@@ -9313,8 +11570,29 @@
       <c r="P30">
         <v>89.605999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="R30">
+        <v>29</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1979.0450000000001</v>
+      </c>
+      <c r="X30">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31">
         <v>30</v>
       </c>
@@ -9357,8 +11635,29 @@
       <c r="P31">
         <v>104.84399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="R31">
+        <v>30</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1980.0039999999999</v>
+      </c>
+      <c r="X31">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32">
         <v>31</v>
       </c>
@@ -9401,8 +11700,29 @@
       <c r="P32">
         <v>128.76599999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="R32">
+        <v>31</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1981.02</v>
+      </c>
+      <c r="X32">
+        <v>-0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33">
         <v>32</v>
       </c>
@@ -9445,8 +11765,29 @@
       <c r="P33">
         <v>126.964</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="R33">
+        <v>32</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1982.0360000000001</v>
+      </c>
+      <c r="X33">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34">
         <v>33</v>
       </c>
@@ -9489,8 +11830,29 @@
       <c r="P34">
         <v>131.55099999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="R34">
+        <v>33</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1983.0519999999999</v>
+      </c>
+      <c r="X34">
+        <v>-0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35">
         <v>34</v>
       </c>
@@ -9533,8 +11895,29 @@
       <c r="P35">
         <v>124.997</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="R35">
+        <v>34</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>1984.011</v>
+      </c>
+      <c r="X35">
+        <v>-0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
       <c r="B36">
         <v>35</v>
       </c>
@@ -9577,8 +11960,29 @@
       <c r="P36">
         <v>112.709</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="R36">
+        <v>35</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1985.027</v>
+      </c>
+      <c r="X36">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37">
         <v>36</v>
       </c>
@@ -9621,8 +12025,29 @@
       <c r="P37">
         <v>130.56800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="R37">
+        <v>36</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1986.0429999999999</v>
+      </c>
+      <c r="X37">
+        <v>-0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38">
         <v>37</v>
       </c>
@@ -9665,8 +12090,29 @@
       <c r="P38">
         <v>127.783</v>
       </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="R38">
+        <v>37</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>7</v>
+      </c>
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>1987.059</v>
+      </c>
+      <c r="X38">
+        <v>-0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
       <c r="B39">
         <v>38</v>
       </c>
@@ -9709,8 +12155,29 @@
       <c r="P39">
         <v>128.76599999999999</v>
       </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="R39">
+        <v>38</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1988.019</v>
+      </c>
+      <c r="X39">
+        <v>-0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
       <c r="B40">
         <v>39</v>
       </c>
@@ -9753,8 +12220,29 @@
       <c r="P40">
         <v>128.602</v>
       </c>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="R40">
+        <v>39</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1989.0340000000001</v>
+      </c>
+      <c r="X40">
+        <v>-0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41">
         <v>40</v>
       </c>
@@ -9797,8 +12285,29 @@
       <c r="P41">
         <v>128.602</v>
       </c>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="R41">
+        <v>40</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1989.9939999999999</v>
+      </c>
+      <c r="X41">
+        <v>-0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42">
         <v>41</v>
       </c>
@@ -9841,8 +12350,29 @@
       <c r="P42">
         <v>140.072</v>
       </c>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="R42">
+        <v>41</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1991.01</v>
+      </c>
+      <c r="X42">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24">
       <c r="B43">
         <v>42</v>
       </c>
@@ -9885,8 +12415,29 @@
       <c r="P43">
         <v>125.98099999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="R43">
+        <v>42</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1992.0260000000001</v>
+      </c>
+      <c r="X43">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44">
         <v>43</v>
       </c>
@@ -9929,8 +12480,29 @@
       <c r="P44">
         <v>138.10499999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:16">
+      <c r="R44">
+        <v>43</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1992.9849999999999</v>
+      </c>
+      <c r="X44">
+        <v>-0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24">
       <c r="B45">
         <v>44</v>
       </c>
@@ -9973,8 +12545,29 @@
       <c r="P45">
         <v>129.58500000000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:16">
+      <c r="R45">
+        <v>44</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>1994.001</v>
+      </c>
+      <c r="X45">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24">
       <c r="B46">
         <v>45</v>
       </c>
@@ -10012,8 +12605,29 @@
         <v>22</v>
       </c>
       <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:16">
+      <c r="R46">
+        <v>45</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1994.961</v>
+      </c>
+      <c r="X46">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47">
         <v>46</v>
       </c>
@@ -10056,8 +12670,29 @@
       <c r="P47">
         <v>139.089</v>
       </c>
-    </row>
-    <row r="48" spans="2:16">
+      <c r="R47">
+        <v>46</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1996.0329999999999</v>
+      </c>
+      <c r="X47">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24">
       <c r="B48">
         <v>47</v>
       </c>
@@ -10100,8 +12735,29 @@
       <c r="P48">
         <v>137.12200000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="R48">
+        <v>47</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>1997.049</v>
+      </c>
+      <c r="X48">
+        <v>-0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24">
       <c r="B49">
         <v>48</v>
       </c>
@@ -10144,8 +12800,29 @@
       <c r="P49">
         <v>121.065</v>
       </c>
-    </row>
-    <row r="50" spans="2:16">
+      <c r="R49">
+        <v>48</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1998.0650000000001</v>
+      </c>
+      <c r="X49">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50">
         <v>49</v>
       </c>
@@ -10188,8 +12865,29 @@
       <c r="P50">
         <v>109.595</v>
       </c>
-    </row>
-    <row r="51" spans="2:16">
+      <c r="R50">
+        <v>49</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>12</v>
+      </c>
+      <c r="U50">
+        <v>12</v>
+      </c>
+      <c r="V50">
+        <v>12</v>
+      </c>
+      <c r="W50">
+        <v>1999.0239999999999</v>
+      </c>
+      <c r="X50">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24">
       <c r="B51">
         <v>50</v>
       </c>
@@ -10232,8 +12930,29 @@
       <c r="P51">
         <v>123.85</v>
       </c>
-    </row>
-    <row r="52" spans="2:16">
+      <c r="R51">
+        <v>50</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>2000.04</v>
+      </c>
+      <c r="X51">
+        <v>-0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24">
       <c r="B52">
         <v>51</v>
       </c>
@@ -10276,8 +12995,29 @@
       <c r="P52">
         <v>119.91800000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="R52">
+        <v>51</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>2001.056</v>
+      </c>
+      <c r="X52">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24">
       <c r="B53">
         <v>52</v>
       </c>
@@ -10305,8 +13045,29 @@
       <c r="P53">
         <v>122.867</v>
       </c>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="R53">
+        <v>52</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>2002.0150000000001</v>
+      </c>
+      <c r="X53">
+        <v>1.9339999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24">
       <c r="B54">
         <v>53</v>
       </c>
@@ -10333,6 +13094,211 @@
       </c>
       <c r="P54">
         <v>102.05800000000001</v>
+      </c>
+      <c r="R54">
+        <v>53</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>2003.0309999999999</v>
+      </c>
+      <c r="X54">
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24">
+      <c r="R55">
+        <v>54</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>2003.991</v>
+      </c>
+      <c r="X55">
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="R56">
+        <v>55</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>2005.0070000000001</v>
+      </c>
+      <c r="X56">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24">
+      <c r="R57">
+        <v>56</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>2006.0229999999999</v>
+      </c>
+      <c r="X57">
+        <v>-0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24">
+      <c r="R58">
+        <v>57</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2007.038</v>
+      </c>
+      <c r="X58">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="R59">
+        <v>58</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>2008.1110000000001</v>
+      </c>
+      <c r="X59">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24">
+      <c r="R60">
+        <v>59</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>2009.0139999999999</v>
+      </c>
+      <c r="X60">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24">
+      <c r="R61">
+        <v>60</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>2010.086</v>
+      </c>
+      <c r="X61">
+        <v>-0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24">
+      <c r="R62">
+        <v>61</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>2010.989</v>
+      </c>
+      <c r="X62">
+        <v>-0.159</v>
       </c>
     </row>
   </sheetData>
